--- a/INTLINE/data/112/BOE/IRBY/Official Bank Rate - A.xlsx
+++ b/INTLINE/data/112/BOE/IRBY/Official Bank Rate - A.xlsx
@@ -1,37 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BOE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+  <si>
+    <t>IUAABEDR</t>
+  </si>
+  <si>
+    <t>IUALBEDR</t>
+  </si>
+  <si>
+    <t>Annual average of official Bank Rate</t>
+  </si>
+  <si>
+    <t>End year official Bank Rate</t>
+  </si>
+  <si>
+    <t>[a] [b]</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>31 Dec 21</t>
+  </si>
+  <si>
+    <t>31 Dec 20</t>
+  </si>
+  <si>
+    <t>31 Dec 19</t>
+  </si>
+  <si>
+    <t>31 Dec 18</t>
+  </si>
+  <si>
+    <t>31 Dec 17</t>
+  </si>
+  <si>
+    <t>31 Dec 16</t>
+  </si>
+  <si>
+    <t>31 Dec 15</t>
+  </si>
+  <si>
+    <t>31 Dec 14</t>
+  </si>
+  <si>
+    <t>31 Dec 13</t>
+  </si>
+  <si>
+    <t>31 Dec 12</t>
+  </si>
+  <si>
+    <t>31 Dec 11</t>
+  </si>
+  <si>
+    <t>31 Dec 10</t>
+  </si>
+  <si>
+    <t>31 Dec 09</t>
+  </si>
+  <si>
+    <t>31 Dec 08</t>
+  </si>
+  <si>
+    <t>31 Dec 07</t>
+  </si>
+  <si>
+    <t>31 Dec 06</t>
+  </si>
+  <si>
+    <t>31 Dec 05</t>
+  </si>
+  <si>
+    <t>31 Dec 04</t>
+  </si>
+  <si>
+    <t>31 Dec 03</t>
+  </si>
+  <si>
+    <t>31 Dec 02</t>
+  </si>
+  <si>
+    <t>31 Dec 01</t>
+  </si>
+  <si>
+    <t>31 Dec 00</t>
+  </si>
+  <si>
+    <t>31 Dec 99</t>
+  </si>
+  <si>
+    <t>31 Dec 98</t>
+  </si>
+  <si>
+    <t>31 Dec 97</t>
+  </si>
+  <si>
+    <t>31 Dec 96</t>
+  </si>
+  <si>
+    <t>31 Dec 95</t>
+  </si>
+  <si>
+    <t>31 Dec 94</t>
+  </si>
+  <si>
+    <t>31 Dec 93</t>
+  </si>
+  <si>
+    <t>31 Dec 92</t>
+  </si>
+  <si>
+    <t>31 Dec 91</t>
+  </si>
+  <si>
+    <t>31 Dec 90</t>
+  </si>
+  <si>
+    <t>31 Dec 89</t>
+  </si>
+  <si>
+    <t>31 Dec 88</t>
+  </si>
+  <si>
+    <t>31 Dec 87</t>
+  </si>
+  <si>
+    <t>31 Dec 86</t>
+  </si>
+  <si>
+    <t>31 Dec 85</t>
+  </si>
+  <si>
+    <t>31 Dec 84</t>
+  </si>
+  <si>
+    <t>31 Dec 83</t>
+  </si>
+  <si>
+    <t>31 Dec 82</t>
+  </si>
+  <si>
+    <t>31 Dec 81</t>
+  </si>
+  <si>
+    <t>31 Dec 80</t>
+  </si>
+  <si>
+    <t>31 Dec 79</t>
+  </si>
+  <si>
+    <t>31 Dec 78</t>
+  </si>
+  <si>
+    <t>31 Dec 77</t>
+  </si>
+  <si>
+    <t>31 Dec 76</t>
+  </si>
+  <si>
+    <t>31 Dec 75</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +213,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +232,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,677 +529,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IUAABEDR</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IUALBEDR</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Annual average of official Bank Rate</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>End year official Bank Rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>[a] [b]</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>[a] [b]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 21</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>0.1059</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 20</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>0.2289</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 19</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>0.75</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 18</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>0.6038</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 17</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>0.2897</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 16</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>0.3972</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 15</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 14</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 13</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 11</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 10</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 09</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
         <v>0.6423</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 08</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>4.6821</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 07</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>5.5128</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 06</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>4.6379</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 05</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>4.6468</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 04</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>4.3858</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.75</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 03</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
         <v>3.6917</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3.75</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 02</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 01</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
         <v>5.1235</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 00</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
         <v>5.9663</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 99</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
         <v>5.3403</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 98</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
         <v>7.2332</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>6.25</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 97</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
         <v>6.5482</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>7.25</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 96</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
         <v>5.8834</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>5.9375</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 95</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
         <v>6.5704</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>6.375</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 94</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
         <v>5.3363</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>6.125</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 93</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
         <v>5.8849</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>5.375</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 92</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
         <v>9.424200000000001</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>6.875</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 91</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
         <v>11.5588</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>10.375</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 90</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
         <v>14.6418</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>13.875</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 89</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
         <v>13.6724</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>14.875</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 88</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
         <v>9.958</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>12.875</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 87</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
         <v>9.596299999999999</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8.375</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 86</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
         <v>10.7426</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>10.875</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 85</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
         <v>12.0786</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>11.375</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 84</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
         <v>9.680300000000001</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>9.5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 83</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
         <v>9.857100000000001</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>9.0625</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 82</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
         <v>11.9298</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>10</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 81</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
         <v>13.1776</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>14.375</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 80</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
         <v>16.3031</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>14</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 79</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
         <v>13.753</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>17</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 78</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
         <v>9.135899999999999</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>12.5</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 77</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
         <v>8.419600000000001</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>7</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 76</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
         <v>11.7431</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>14.25</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>31 Dec 75</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
         <v>11.4643</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>11.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>